--- a/teste_talles.xlsx
+++ b/teste_talles.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t xml:space="preserve">5d8b9238da09856b00edc278</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">Troca de modem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5d8b9232da09856b00edc270</t>
   </si>
 </sst>
 </file>
@@ -146,14 +149,14 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.81"/>
   </cols>
   <sheetData>
@@ -172,7 +175,18 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="1"/>
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>43747</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D3" s="1"/>

--- a/teste_talles.xlsx
+++ b/teste_talles.xlsx
@@ -149,10 +149,10 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.42"/>
@@ -171,7 +171,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>43783.5833333333</v>
+        <v>43786.5833333333</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -185,7 +185,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>43747</v>
+        <v>43789</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
